--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C70D1B4-624D-4309-B632-491F33DE30CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5412B01-3F65-4AA1-A4FA-8855CFCA445E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>data</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>http://www.amazon.com</t>
+  </si>
+  <si>
+    <t>home1</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,10 +427,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5412B01-3F65-4AA1-A4FA-8855CFCA445E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD53BC4-48C4-4B6B-8198-26EC891C6C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>http://www.amazon.com</t>
   </si>
   <si>
-    <t>home1</t>
+    <t>home</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,39 +1,42 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C70D1B4-624D-4309-B632-491F33DE30CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>Worksheets</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>1</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="1" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <Company/>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>16.0300</AppVersion>
+</Properties>
+</file>
+
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Divya M</dc:creator>
+  <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2022-04-23T13:57:28Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-04-23T13:58:09Z</dcterms:modified>
+</cp:coreProperties>
+</file>
+
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>element_type</t>
@@ -56,7 +59,7 @@
 </sst>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -106,7 +109,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -401,7 +404,41 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C70D1B4-624D-4309-B632-491F33DE30CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349429E7-699F-41AC-ACEF-79FDB77413B4}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,43 +1,40 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Excel</Application>
-  <DocSecurity>0</DocSecurity>
-  <ScaleCrop>false</ScaleCrop>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>Worksheets</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>1</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="1" baseType="lpstr">
-      <vt:lpstr>Sheet1</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-  <Company/>
-  <LinksUpToDate>false</LinksUpToDate>
-  <SharedDoc>false</SharedDoc>
-  <HyperlinksChanged>false</HyperlinksChanged>
-  <AppVersion>16.0300</AppVersion>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C2564-5E48-41EA-A260-7B38DDECD354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>Divya M</dc:creator>
-  <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2022-04-23T13:57:28Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-04-23T13:58:09Z</dcterms:modified>
-</cp:coreProperties>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>element_type</t>
   </si>
@@ -51,15 +48,18 @@
     <t>data</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>http://www.amazon.com</t>
+  </si>
+  <si>
+    <t>home4</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
 
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,7 +109,7 @@
 </styleSheet>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -404,51 +404,17 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C70D1B4-624D-4309-B632-491F33DE30CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349429E7-699F-41AC-ACEF-79FDB77413B4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,16 +424,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,39 +1,42 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD53BC4-48C4-4B6B-8198-26EC891C6C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>Worksheets</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>1</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="1" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <Company/>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>16.0300</AppVersion>
+</Properties>
+</file>
+
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Divya M</dc:creator>
+  <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2022-04-23T13:57:28Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-04-23T14:13:12Z</dcterms:modified>
+</cp:coreProperties>
+</file>
+
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>element_type</t>
@@ -56,7 +59,7 @@
 </sst>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -106,7 +109,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -401,7 +404,41 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD53BC4-48C4-4B6B-8198-26EC891C6C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349429E7-699F-41AC-ACEF-79FDB77413B4}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C2564-5E48-41EA-A260-7B38DDECD354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3440D2D1-464E-4D3A-B661-DAF139222825}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="23040" windowHeight="12240" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,10 @@
     <t>http://www.amazon.com</t>
   </si>
   <si>
-    <t>home4</t>
-  </si>
-  <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>home1</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3440D2D1-464E-4D3A-B661-DAF139222825}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7F29B3-5508-46C4-A332-9D55D7EA537D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="23040" windowHeight="12240" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>home1</t>
+    <t>home2</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7F29B3-5508-46C4-A332-9D55D7EA537D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D492D43-1930-4C0A-9815-5766F3C26641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="23040" windowHeight="12240" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>home2</t>
+    <t>home3</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D492D43-1930-4C0A-9815-5766F3C26641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1877E41-AE5C-4409-8298-A1757F45324F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="23040" windowHeight="12240" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>home3</t>
+    <t>home4</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3440D2D1-464E-4D3A-B661-DAF139222825}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C2564-5E48-41EA-A260-7B38DDECD354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="23040" windowHeight="12240" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,10 @@
     <t>http://www.amazon.com</t>
   </si>
   <si>
+    <t>home4</t>
+  </si>
+  <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>home1</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3440D2D1-464E-4D3A-B661-DAF139222825}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EA40FD-FAFF-4CEB-B941-7DF840A54B87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="23040" windowHeight="12240" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>home1</t>
+    <t>testccc</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1877E41-AE5C-4409-8298-A1757F45324F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C5846-A808-4180-9DA2-8811C9DF6EAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="23040" windowHeight="12240" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C5846-A808-4180-9DA2-8811C9DF6EAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F7A68-89DE-4A58-AFA3-0B88A069DC3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="23040" windowHeight="12240" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>home4</t>
+    <t>home</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F7A68-89DE-4A58-AFA3-0B88A069DC3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440091FD-7532-4333-93F9-E1913516B6A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
+    <t>home1</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440091FD-7532-4333-93F9-E1913516B6A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F07E1E-AE19-42C2-8784-BE677BF72EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AABB1C2-3378-4FC1-A8BA-54286F744827}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>home1</t>
+    <t>home2</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F560D-E298-4E3C-BA68-4E49D02A463F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>element_type</t>
   </si>
@@ -33,16 +41,18 @@
   </si>
   <si>
     <t>http://www.amazon.com</t>
+  </si>
+  <si>
+    <t>new data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,7 +64,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -72,18 +82,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -97,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -108,7 +428,12 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F560D-E298-4E3C-BA68-4E49D02A463F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79248907-2752-45F0-ABB9-9C122C1F9354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>element_type</t>
   </si>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,6 +432,9 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79248907-2752-45F0-ABB9-9C122C1F9354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA511BE3-A797-4CAE-B8C4-FEA0EF36F499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>element_type</t>
   </si>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,6 +435,9 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA511BE3-A797-4CAE-B8C4-FEA0EF36F499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FCE916-07AE-4EC0-BE89-1C8E1FFFD96E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>element_type</t>
   </si>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,6 +438,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F47099-1499-4F2E-A09A-4F30FBEB2CD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>element_type</t>
   </si>
@@ -39,16 +47,18 @@
   </si>
   <si>
     <t>newt</t>
+  </si>
+  <si>
+    <t>NEWtest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -60,7 +70,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -78,18 +88,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -103,7 +423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -113,8 +433,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -129,6 +452,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8923F0-37A2-4215-A37C-77EAC11BC57D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE21CFE6-319C-48CD-9492-2C24488668F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>element_type</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>newt</t>
+  </si>
+  <si>
+    <t>testvalue</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,6 +433,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE21CFE6-319C-48CD-9492-2C24488668F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DCCD3F-FF81-4203-ABB2-FCF5DEACFB90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>element_type</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +451,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE21CFE6-319C-48CD-9492-2C24488668F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6A8047-E278-4C3C-8411-49ACFC056395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>element_type</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>testvalue</t>
+  </si>
+  <si>
+    <t>updateconflict</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +454,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A859B4-37FB-4B20-864B-B8327A6B8257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>element_type</t>
   </si>
@@ -45,16 +53,18 @@
   </si>
   <si>
     <t>updateconflict</t>
+  </si>
+  <si>
+    <t>new variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,7 +76,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -84,18 +94,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -109,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -123,7 +443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -137,12 +457,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3987020F-3D3B-4074-9737-FBED3F1EDBA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C44E95-4FCB-4706-A6DB-A9704A635AB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>element_type</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>updateconflict</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>tessst</t>
   </si>
 </sst>
 </file>
@@ -458,8 +464,11 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A859B4-37FB-4B20-864B-B8327A6B8257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE2B70-4FFC-4CC5-AFDA-31CD8691DF29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>element_type</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>new variable</t>
+  </si>
+  <si>
+    <t>masn</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,6 +467,9 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4606B202-500E-483C-A302-CF3D8D843D28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>element_type</t>
   </si>
@@ -48,16 +56,21 @@
   </si>
   <si>
     <t>tessst</t>
+  </si>
+  <si>
+    <t>reer</t>
+  </si>
+  <si>
+    <t>deww</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,7 +82,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -87,18 +100,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -112,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -126,7 +449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -140,15 +463,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD51FFD3-2C24-4AB6-A022-EC0F8706BBB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>element_type</t>
   </si>
@@ -54,16 +62,18 @@
   </si>
   <si>
     <t>FEFE</t>
+  </si>
+  <si>
+    <t>new value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -75,7 +85,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -93,18 +103,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -118,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -131,8 +451,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -146,7 +469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -161,6 +484,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD51FFD3-2C24-4AB6-A022-EC0F8706BBB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F626BAA6-7A6B-452B-BA04-99647EE2893D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>element_type</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>new value</t>
+  </si>
+  <si>
+    <t>header</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,6 +440,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B82132-2BE1-424D-AF0B-7E7264BC280D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>element_type</t>
   </si>
@@ -63,16 +71,18 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>valueadded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,7 +94,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -102,18 +112,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -130,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -147,7 +467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -160,8 +480,11 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -175,12 +498,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B82132-2BE1-424D-AF0B-7E7264BC280D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88CC65D-6F22-4C6B-950E-FDE54FB62A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>element_type</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>valueadded</t>
+  </si>
+  <si>
+    <t>head</t>
   </si>
 </sst>
 </file>
@@ -425,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +452,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -467,7 +473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -484,7 +490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -497,8 +503,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F752DA4-9FFE-4C78-B4F1-30B7B3A1AD21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>element_type</t>
   </si>
@@ -72,16 +80,18 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>divya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -93,7 +103,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -111,18 +121,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -142,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -158,8 +478,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -176,7 +499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -193,7 +516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -202,6 +525,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="23">
   <si>
     <t>element_type</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -193,6 +196,9 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -225,6 +231,9 @@
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="23">
   <si>
     <t>element_type</t>
   </si>
@@ -125,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -176,6 +176,9 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -225,6 +228,9 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
   <si>
     <t>element_type</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>newlyaddded</t>
+  </si>
+  <si>
+    <t>adding</t>
   </si>
   <si>
     <t>data</t>
@@ -125,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,36 +156,42 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -191,55 +200,61 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="25">
   <si>
     <t>element_type</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>valueadded</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
   <si>
     <t>updateconflict</t>
@@ -211,27 +214,30 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -254,7 +260,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="25">
   <si>
     <t>element_type</t>
   </si>
@@ -56,6 +56,9 @@
     <t>divya</t>
   </si>
   <si>
+    <t>add</t>
+  </si>
+  <si>
     <t>new data</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>valueadded</t>
-  </si>
-  <si>
-    <t>add</t>
   </si>
   <si>
     <t>updateconflict</t>
@@ -191,10 +191,13 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -203,10 +206,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -215,7 +218,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -264,6 +267,9 @@
       </c>
       <c r="C6" t="s">
         <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="27">
   <si>
     <t>element_type</t>
   </si>
@@ -286,6 +286,9 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="TestSheet" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="30">
   <si>
     <t>element_type</t>
   </si>
@@ -93,6 +94,15 @@
   </si>
   <si>
     <t>siva</t>
+  </si>
+  <si>
+    <t>header1</t>
+  </si>
+  <si>
+    <t>header2</t>
+  </si>
+  <si>
+    <t>row1</t>
   </si>
 </sst>
 </file>
@@ -293,4 +303,33 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,19 +1,43 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
-    <sheet name="TestSheet" r:id="rId4" sheetId="2"/>
-  </sheets>
-</workbook>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>Worksheets</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>2</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="2" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+      <vt:lpstr>TestSheet</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>16.0300</AppVersion>
+</Properties>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="30">
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Apache POI</dc:creator>
+  <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2022-08-02T12:39:16Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-08-03T05:23:24Z</dcterms:modified>
+</cp:coreProperties>
+</file>
+
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>element_type</t>
   </si>
@@ -103,16 +127,21 @@
   </si>
   <si>
     <t>row1</t>
+  </si>
+  <si>
+    <t>row2</t>
+  </si>
+  <si>
+    <t>row3</t>
   </si>
 </sst>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,7 +153,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -142,18 +171,347 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F68F7-710B-4C64-9C3D-FF1A7EA2B5DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -182,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -211,7 +569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -237,7 +595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -257,7 +615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -277,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -301,19 +659,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+<file path=xl\worksheets\sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -321,7 +681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -329,7 +689,23 @@
         <v>29</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -10,14 +10,15 @@
         <vt:lpstr>Worksheets</vt:lpstr>
       </vt:variant>
       <vt:variant>
-        <vt:i4>2</vt:i4>
+        <vt:i4>3</vt:i4>
       </vt:variant>
     </vt:vector>
   </HeadingPairs>
   <TitlesOfParts>
-    <vt:vector size="2" baseType="lpstr">
+    <vt:vector size="3" baseType="lpstr">
       <vt:lpstr>Sheet1</vt:lpstr>
       <vt:lpstr>TestSheet</vt:lpstr>
+      <vt:lpstr>newsheetadd</vt:lpstr>
     </vt:vector>
   </TitlesOfParts>
   <LinksUpToDate>false</LinksUpToDate>
@@ -32,12 +33,12 @@
   <dc:creator>Apache POI</dc:creator>
   <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
   <dcterms:created xsi:type="dcterms:W3CDTF">2022-08-02T12:39:16Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-08-03T05:23:24Z</dcterms:modified>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-08-03T09:25:31Z</dcterms:modified>
 </cp:coreProperties>
 </file>
 
 <file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>element_type</t>
   </si>
@@ -491,13 +492,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F68F7-710B-4C64-9C3D-FF1A7EA2B5DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F7E35-ED9E-4249-A4D8-82590213A7EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="newsheetadd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -667,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -708,4 +710,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl\worksheets\sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587D2EED-7683-4B28-B8CC-5AB7DFA91A27}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -33,12 +33,12 @@
   <dc:creator>Apache POI</dc:creator>
   <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
   <dcterms:created xsi:type="dcterms:W3CDTF">2022-08-02T12:39:16Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-08-03T09:25:31Z</dcterms:modified>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-08-03T09:36:42Z</dcterms:modified>
 </cp:coreProperties>
 </file>
 
 <file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>element_type</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>row3</t>
+  </si>
+  <si>
+    <t>newadd</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F7E35-ED9E-4249-A4D8-82590213A7EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4257C12D-8072-4713-8DC9-03F52A5DD6F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,10 +717,10 @@
 
 <file path=xl\worksheets\sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587D2EED-7683-4B28-B8CC-5AB7DFA91A27}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,6 +741,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -33,12 +33,12 @@
   <dc:creator>Apache POI</dc:creator>
   <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
   <dcterms:created xsi:type="dcterms:W3CDTF">2022-08-02T12:39:16Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-08-03T09:36:42Z</dcterms:modified>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-08-03T10:08:51Z</dcterms:modified>
 </cp:coreProperties>
 </file>
 
 <file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>element_type</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>row4</t>
+  </si>
+  <si>
+    <t>header3</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58665AAA-F962-4D62-B065-FD3A40A46F22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124490CC-5856-4A82-B805-2951FDC89504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,31 +673,37 @@
 
 <file path=xl\worksheets\sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -702,7 +711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -710,7 +719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -33,12 +33,12 @@
   <dc:creator>Apache POI</dc:creator>
   <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
   <dcterms:created xsi:type="dcterms:W3CDTF">2022-08-02T12:39:16Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-08-03T10:20:21Z</dcterms:modified>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-08-03T10:41:34Z</dcterms:modified>
 </cp:coreProperties>
 </file>
 
 <file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>element_type</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>newadd</t>
+  </si>
+  <si>
+    <t>header3</t>
   </si>
 </sst>
 </file>
@@ -495,9 +498,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAA4458-2A58-41D2-8851-7C86D2C2EBE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B04EF7CB-24C0-46B5-89D6-D42A50C27174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,6 +508,7 @@
     <sheet name="newsheetadd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -673,7 +677,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587D2EED-7683-4B28-B8CC-5AB7DFA91A27}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
